--- a/data/trans_dic/Q25_A_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Q25_A_R3-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,78; 40,3</t>
+          <t>15,84; 40,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,71; 43,06</t>
+          <t>21,94; 43,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,71; 39,15</t>
+          <t>18,01; 38,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,3; 30,52</t>
+          <t>9,74; 32,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,76; 78,6</t>
+          <t>30,68; 77,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,21; 56,17</t>
+          <t>21,45; 54,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,87; 47,66</t>
+          <t>21,2; 49,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,35; 44,74</t>
+          <t>8,64; 43,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,85; 47,31</t>
+          <t>23,97; 48,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25,33; 43,23</t>
+          <t>24,39; 43,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>22,24; 38,65</t>
+          <t>22,07; 39,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,6; 31,97</t>
+          <t>11,86; 30,67</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,59; 32,38</t>
+          <t>16,52; 32,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,37; 36,15</t>
+          <t>19,17; 34,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,72; 39,55</t>
+          <t>19,84; 39,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,0; 30,5</t>
+          <t>10,96; 30,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,61; 73,45</t>
+          <t>35,23; 73,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,76; 54,6</t>
+          <t>29,37; 56,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,41; 48,77</t>
+          <t>19,63; 50,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,15; 38,42</t>
+          <t>17,26; 37,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,79; 38,55</t>
+          <t>21,91; 37,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,54; 40,3</t>
+          <t>25,24; 39,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22,35; 38,54</t>
+          <t>22,52; 38,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,34; 29,99</t>
+          <t>15,79; 30,53</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,91; 27,61</t>
+          <t>7,5; 26,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,91; 36,57</t>
+          <t>18,29; 36,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,94; 33,8</t>
+          <t>13,81; 34,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,86; 34,74</t>
+          <t>14,66; 35,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,07; 77,8</t>
+          <t>20,84; 75,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,67; 57,61</t>
+          <t>23,91; 59,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,85; 54,76</t>
+          <t>20,77; 55,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,77; 42,25</t>
+          <t>20,07; 43,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,8; 31,2</t>
+          <t>12,86; 32,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,53; 39,54</t>
+          <t>22,54; 38,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,45; 36,44</t>
+          <t>18,77; 35,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,76; 34,82</t>
+          <t>19,51; 34,09</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,77; 33,57</t>
+          <t>14,59; 34,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,17; 33,52</t>
+          <t>17,54; 33,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,32; 28,31</t>
+          <t>13,13; 30,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 24,26</t>
+          <t>7,16; 24,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,84; 47,48</t>
+          <t>20,08; 48,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,57; 51,01</t>
+          <t>22,79; 50,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,61; 39,89</t>
+          <t>13,98; 39,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,74; 33,4</t>
+          <t>15,09; 32,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,55; 35,38</t>
+          <t>18,63; 35,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,41; 35,35</t>
+          <t>20,28; 34,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,34; 29,62</t>
+          <t>15,15; 28,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,16; 24,71</t>
+          <t>12,52; 25,08</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,75; 40,85</t>
+          <t>12,74; 41,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,32; 47,88</t>
+          <t>19,59; 47,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,08; 43,65</t>
+          <t>14,32; 41,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 38,88</t>
+          <t>7,6; 40,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,9; 60,52</t>
+          <t>23,16; 61,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,17; 52,87</t>
+          <t>18,49; 55,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,34; 75,1</t>
+          <t>26,33; 71,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 55,23</t>
+          <t>5,24; 53,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,02; 44,68</t>
+          <t>20,7; 44,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23,12; 44,94</t>
+          <t>22,74; 44,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22,27; 45,74</t>
+          <t>22,0; 45,12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,01; 36,39</t>
+          <t>10,62; 36,54</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,06; 47,06</t>
+          <t>20,35; 48,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,39; 43,97</t>
+          <t>24,62; 44,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,34; 29,62</t>
+          <t>8,26; 29,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,11; 29,16</t>
+          <t>6,76; 28,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,92; 76,39</t>
+          <t>25,27; 76,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,12; 73,35</t>
+          <t>29,99; 73,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,56; 62,45</t>
+          <t>16,98; 62,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,0; 54,29</t>
+          <t>6,12; 54,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,51; 50,57</t>
+          <t>27,32; 49,67</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>28,22; 46,51</t>
+          <t>28,38; 46,84</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,05; 35,15</t>
+          <t>13,97; 34,26</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,5; 30,2</t>
+          <t>9,65; 28,86</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,06; 32,66</t>
+          <t>14,69; 33,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,59; 29,26</t>
+          <t>16,9; 29,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>20,87; 36,51</t>
+          <t>21,11; 37,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,62; 17,8</t>
+          <t>6,74; 17,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,48; 48,14</t>
+          <t>15,88; 48,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,03; 38,52</t>
+          <t>19,15; 38,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,53; 42,34</t>
+          <t>22,45; 42,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,98; 36,87</t>
+          <t>18,22; 35,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,85; 33,29</t>
+          <t>17,25; 32,88</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,86; 30,61</t>
+          <t>19,55; 30,4</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23,64; 36,38</t>
+          <t>23,67; 36,49</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,33; 23,25</t>
+          <t>12,89; 22,94</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,7; 31,65</t>
+          <t>17,05; 31,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,42; 32,79</t>
+          <t>16,51; 33,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,07; 24,28</t>
+          <t>11,49; 24,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,5; 94,42</t>
+          <t>8,35; 93,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,87; 36,33</t>
+          <t>17,44; 37,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,54; 51,54</t>
+          <t>25,17; 50,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,9; 37,57</t>
+          <t>16,41; 36,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,61; 42,0</t>
+          <t>16,68; 42,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18,65; 30,73</t>
+          <t>19,08; 31,19</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>21,8; 35,46</t>
+          <t>21,77; 35,92</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14,74; 25,55</t>
+          <t>15,16; 26,24</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,94; 91,78</t>
+          <t>12,87; 89,93</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>20,69; 27,44</t>
+          <t>20,43; 27,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>23,85; 30,13</t>
+          <t>23,74; 30,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>20,46; 26,92</t>
+          <t>20,39; 26,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,17; 70,14</t>
+          <t>14,17; 70,28</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>31,96; 44,19</t>
+          <t>31,55; 43,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>31,47; 41,19</t>
+          <t>31,08; 41,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>26,9; 36,18</t>
+          <t>26,9; 36,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>22,48; 31,3</t>
+          <t>22,19; 30,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>24,84; 30,98</t>
+          <t>24,84; 30,81</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>27,45; 33,11</t>
+          <t>27,37; 32,66</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>23,52; 29,11</t>
+          <t>23,61; 29,11</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,37; 66,68</t>
+          <t>18,35; 66,72</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que dejo de fumar hace menos tiempo (3.374 años)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11972</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25462</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21833</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>8568</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10837</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18626</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2779</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22809</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>40768</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>40458</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>11346</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7069; 18106</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17579; 34552</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14540; 31148</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4484; 15001</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6158; 15622</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8587; 21844</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11625; 26892</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1044; 5207</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>15508; 31133</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>29299; 51756</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>29915; 53128</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6889; 17822</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>26556</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>33315</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>24307</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>20726</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13864</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>26919</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13061</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16780</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>40420</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>60233</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>37368</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>37506</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>18469; 35795</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>23618; 43038</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16663; 32770</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11834; 33039</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9110; 18922</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>18761; 35888</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7663; 19532</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11016; 24195</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>30154; 51506</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>47221; 74091</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>27701; 47816</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>27126; 52445</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9724</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23313</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15404</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15629</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6845</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13581</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11252</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15111</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16569</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>36894</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>26656</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>30740</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4712; 16725</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16235; 32555</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9329; 23109</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9795; 23407</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2967; 10743</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8184; 20464</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6318; 16731</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9933; 21334</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9905; 25034</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27722; 47698</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18383; 35111</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22694; 39658</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>17437</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>26003</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>19643</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12907</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>12801</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16157</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12994</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13712</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>30239</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>42160</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>32637</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>26619</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11072; 26221</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>18314; 35343</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>12970; 30084</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6578; 22525</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7796; 18830</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>10597; 23359</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>7088; 19998</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>8717; 18790</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>21376; 40146</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>30595; 52769</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>22655; 43080</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>18731; 37535</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9872</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>16360</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11727</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2928</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>11602</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9169</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10012</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1828</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>21474</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>25529</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>21739</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4756</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5156; 16909</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9685; 23663</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6417; 18403</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1125; 6057</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6512; 17343</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4964; 14905</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5251; 14343</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>436; 4462</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14195; 30300</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>17348; 34126</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>14246; 29222</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2457; 8454</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>17046</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>28380</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8885</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6942</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>11132</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6610</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2921</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>26283</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>39511</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>15495</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>9863</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>10414; 24706</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>20938; 38075</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4170; 15079</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3066; 13053</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4456; 13468</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6553; 15987</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2852; 10423</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>674; 5965</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>18797; 34177</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>30336; 50066</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>9403; 23058</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>5443; 16277</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>20560</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>38440</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>37600</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>13730</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>9603</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>25646</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>27134</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>24103</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>30163</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>64086</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>64733</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>37833</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>13180; 29650</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>28512; 50446</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>27686; 49049</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>8282; 21914</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>4831; 14840</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>17583; 35437</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>19568; 37328</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>16876; 32968</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>20726; 39497</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>50920; 79188</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>51682; 79676</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>27780; 49456</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>32434</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>30930</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>23394</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>254685</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>19302</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>24495</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>20901</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>10331</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>51736</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>55426</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>44294</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>265016</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>23279; 42671</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>21161; 43535</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>15863; 33720</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>28905; 322926</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>12781; 27161</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>16599; 33390</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>13740; 30917</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>6126; 15597</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>40032; 65451</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>42267; 69734</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>33623; 58186</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>49304; 344400</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>145602</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>222203</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>162793</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>336115</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>94091</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>142404</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>120588</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>87565</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>239692</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>364607</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>283381</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>423679</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>125205; 167489</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>196522; 251189</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>141854; 187411</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>119283; 591810</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>78394; 108845</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>121547; 161016</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>102930; 139379</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>73655; 102448</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>213945; 265436</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>333682; 398064</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>254596; 313914</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>215406; 783181</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>